--- a/Keyword Creation/NX - ANTI CLASSIFICATION.xlsx
+++ b/Keyword Creation/NX - ANTI CLASSIFICATION.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="979" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="989" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId2"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="225" uniqueCount="99">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="251" uniqueCount="111">
   <si>
     <t xml:space="preserve">RemoveClass</t>
   </si>
@@ -103,6 +103,9 @@
     <t xml:space="preserve">SI ACEPTA O RECHAZA UNA PROPUESTA DE REQUERIMIENTO DE PAGO</t>
   </si>
   <si>
+    <t xml:space="preserve">Y SERÁ TRAMITADA COMO JUICIO MONITORIO</t>
+  </si>
+  <si>
     <t xml:space="preserve">N2</t>
   </si>
   <si>
@@ -166,6 +169,24 @@
     <t xml:space="preserve">EFECTOS DE LA PRESENTE EJECUCIÓN</t>
   </si>
   <si>
+    <t xml:space="preserve">DAR CUENTA A S.Sª</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CONTENÍA LA ORDEN GENERAL DE EJECUCIÓN</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SE DESPACHÓ EJECUCION</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ACUERDO DAR TRASLADO DEL ESCRITO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A FIN DE QUE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ALEGUEN LO QUE A SU DERECHO</t>
+  </si>
+  <si>
     <t xml:space="preserve">N4</t>
   </si>
   <si>
@@ -178,12 +199,18 @@
     <t xml:space="preserve">SE ACUERDA LA PRÓRROGA DEL PLAZO</t>
   </si>
   <si>
+    <t xml:space="preserve">ACUERDO DAR CUENTA A S.Sª</t>
+  </si>
+  <si>
     <t xml:space="preserve">N6</t>
   </si>
   <si>
     <t xml:space="preserve">AUN NO CONSTA REQUERIDO</t>
   </si>
   <si>
+    <t xml:space="preserve">TODA VEZ QUE LOS EMBARGADOS SOLICITADOS ESTÁN TRABADOS</t>
+  </si>
+  <si>
     <t xml:space="preserve">N8</t>
   </si>
   <si>
@@ -260,6 +287,15 @@
   </si>
   <si>
     <t xml:space="preserve">REQUIERO AL DEUDOR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CUMPLIÉNDOSE LOS REQUISITOS PREVISTOS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">EN CONTESTACION A REQUERIMIENTO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DAR POR TERMINADO EL PRESENTE PROCEDIMIENTO</t>
   </si>
   <si>
     <t xml:space="preserve">N11</t>
@@ -326,7 +362,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="6">
+  <fonts count="5">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -354,11 +390,6 @@
       <name val="Arial"/>
       <family val="2"/>
       <charset val="1"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -416,8 +447,8 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -437,17 +468,17 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:D104"/>
+  <dimension ref="A1:Z115"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A46" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B54" activeCellId="0" sqref="B54"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A97" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C109" activeCellId="0" sqref="C109"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="22.6785714285714"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="61.1530612244898"/>
-    <col collapsed="false" hidden="false" max="1025" min="3" style="0" width="8.36734693877551"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="22.4081632653061"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="60.4744897959184"/>
+    <col collapsed="false" hidden="false" max="1025" min="3" style="0" width="8.23469387755102"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -645,16 +676,16 @@
       </c>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="0" t="s">
+      <c r="A23" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B23" s="3" t="s">
         <v>27</v>
-      </c>
-      <c r="B23" s="0" t="s">
-        <v>28</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="0" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B24" s="0" t="s">
         <v>29</v>
@@ -662,7 +693,7 @@
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="0" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B25" s="0" t="s">
         <v>30</v>
@@ -670,7 +701,7 @@
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="0" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B26" s="0" t="s">
         <v>31</v>
@@ -678,7 +709,7 @@
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="0" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B27" s="0" t="s">
         <v>32</v>
@@ -686,7 +717,7 @@
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="0" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B28" s="0" t="s">
         <v>33</v>
@@ -694,15 +725,15 @@
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="B29" s="0" t="s">
         <v>34</v>
-      </c>
-      <c r="B29" s="0" t="s">
-        <v>35</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="0" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B30" s="0" t="s">
         <v>36</v>
@@ -710,7 +741,7 @@
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="0" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B31" s="0" t="s">
         <v>37</v>
@@ -718,7 +749,7 @@
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="0" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B32" s="0" t="s">
         <v>38</v>
@@ -726,7 +757,7 @@
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="0" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B33" s="0" t="s">
         <v>39</v>
@@ -734,7 +765,7 @@
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="0" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B34" s="0" t="s">
         <v>40</v>
@@ -742,7 +773,7 @@
     </row>
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="0" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B35" s="0" t="s">
         <v>41</v>
@@ -750,7 +781,7 @@
     </row>
     <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="0" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B36" s="0" t="s">
         <v>42</v>
@@ -758,7 +789,7 @@
     </row>
     <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="0" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B37" s="0" t="s">
         <v>43</v>
@@ -766,7 +797,7 @@
     </row>
     <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="0" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B38" s="0" t="s">
         <v>44</v>
@@ -774,7 +805,7 @@
     </row>
     <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="0" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B39" s="0" t="s">
         <v>45</v>
@@ -782,7 +813,7 @@
     </row>
     <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="0" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B40" s="0" t="s">
         <v>46</v>
@@ -790,547 +821,811 @@
     </row>
     <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="0" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B41" s="0" t="s">
-        <v>3</v>
+        <v>47</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="0" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B42" s="0" t="s">
-        <v>47</v>
+        <v>3</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="0" t="s">
+        <v>35</v>
+      </c>
+      <c r="B43" s="0" t="s">
         <v>48</v>
       </c>
-      <c r="B43" s="0" t="s">
+    </row>
+    <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A44" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="B44" s="3" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A44" s="0" t="s">
+      <c r="C44" s="1"/>
+      <c r="D44" s="1"/>
+      <c r="E44" s="1"/>
+      <c r="F44" s="1"/>
+      <c r="G44" s="1"/>
+      <c r="H44" s="1"/>
+      <c r="I44" s="1"/>
+      <c r="J44" s="1"/>
+      <c r="K44" s="1"/>
+      <c r="L44" s="1"/>
+      <c r="M44" s="1"/>
+      <c r="N44" s="1"/>
+      <c r="O44" s="1"/>
+      <c r="P44" s="1"/>
+      <c r="Q44" s="1"/>
+      <c r="R44" s="1"/>
+      <c r="S44" s="1"/>
+      <c r="T44" s="1"/>
+      <c r="U44" s="1"/>
+      <c r="V44" s="1"/>
+      <c r="W44" s="1"/>
+      <c r="X44" s="1"/>
+      <c r="Y44" s="1"/>
+      <c r="Z44" s="1"/>
+    </row>
+    <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A45" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="B45" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="B44" s="0" t="s">
+      <c r="C45" s="1"/>
+      <c r="D45" s="1"/>
+      <c r="E45" s="1"/>
+      <c r="F45" s="1"/>
+      <c r="G45" s="1"/>
+      <c r="H45" s="1"/>
+      <c r="I45" s="1"/>
+      <c r="J45" s="1"/>
+      <c r="K45" s="1"/>
+      <c r="L45" s="1"/>
+      <c r="M45" s="1"/>
+      <c r="N45" s="1"/>
+      <c r="O45" s="1"/>
+      <c r="P45" s="1"/>
+      <c r="Q45" s="1"/>
+      <c r="R45" s="1"/>
+      <c r="S45" s="1"/>
+      <c r="T45" s="1"/>
+      <c r="U45" s="1"/>
+      <c r="V45" s="1"/>
+      <c r="W45" s="1"/>
+      <c r="X45" s="1"/>
+      <c r="Y45" s="1"/>
+      <c r="Z45" s="1"/>
+    </row>
+    <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A46" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="B46" s="3" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A45" s="0" t="s">
+      <c r="C46" s="1"/>
+      <c r="D46" s="1"/>
+      <c r="E46" s="1"/>
+      <c r="F46" s="1"/>
+      <c r="G46" s="1"/>
+      <c r="H46" s="1"/>
+      <c r="I46" s="1"/>
+      <c r="J46" s="1"/>
+      <c r="K46" s="1"/>
+      <c r="L46" s="1"/>
+      <c r="M46" s="1"/>
+      <c r="N46" s="1"/>
+      <c r="O46" s="1"/>
+      <c r="P46" s="1"/>
+      <c r="Q46" s="1"/>
+      <c r="R46" s="1"/>
+      <c r="S46" s="1"/>
+      <c r="T46" s="1"/>
+      <c r="U46" s="1"/>
+      <c r="V46" s="1"/>
+      <c r="W46" s="1"/>
+      <c r="X46" s="1"/>
+      <c r="Y46" s="1"/>
+      <c r="Z46" s="1"/>
+    </row>
+    <row r="47" customFormat="false" ht="68.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A47" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="B47" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="B45" s="0" t="s">
+      <c r="C47" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D47" s="3" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A46" s="0" t="s">
+      <c r="E47" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="F47" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="B46" s="0" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A47" s="0" t="s">
-        <v>54</v>
-      </c>
-      <c r="B47" s="0" t="s">
-        <v>56</v>
-      </c>
-      <c r="C47" s="0" t="s">
-        <v>18</v>
-      </c>
-      <c r="D47" s="0" t="s">
-        <v>57</v>
-      </c>
+      <c r="G47" s="1"/>
+      <c r="H47" s="1"/>
+      <c r="I47" s="1"/>
+      <c r="J47" s="1"/>
+      <c r="K47" s="1"/>
+      <c r="L47" s="1"/>
+      <c r="M47" s="1"/>
+      <c r="N47" s="1"/>
+      <c r="O47" s="1"/>
+      <c r="P47" s="1"/>
+      <c r="Q47" s="1"/>
+      <c r="R47" s="1"/>
+      <c r="S47" s="1"/>
+      <c r="T47" s="1"/>
+      <c r="U47" s="1"/>
+      <c r="V47" s="1"/>
+      <c r="W47" s="1"/>
+      <c r="X47" s="1"/>
+      <c r="Y47" s="1"/>
+      <c r="Z47" s="1"/>
     </row>
     <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="0" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B48" s="0" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="0" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="B49" s="0" t="s">
-        <v>15</v>
+        <v>58</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="0" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="B50" s="3" t="s">
-        <v>16</v>
+        <v>59</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="0" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B51" s="0" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="52" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="0" t="s">
-        <v>59</v>
-      </c>
-      <c r="B52" s="0" t="s">
-        <v>6</v>
+        <v>60</v>
+      </c>
+      <c r="B52" s="3" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="0" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="B53" s="0" t="s">
-        <v>4</v>
+        <v>64</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="0" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="B54" s="0" t="s">
-        <v>60</v>
+        <v>65</v>
+      </c>
+      <c r="C54" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="D54" s="0" t="s">
+        <v>66</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="0" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="B55" s="0" t="s">
-        <v>61</v>
+        <v>67</v>
       </c>
     </row>
     <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A56" s="0" t="s">
-        <v>59</v>
-      </c>
-      <c r="B56" s="3" t="s">
-        <v>16</v>
+        <v>63</v>
+      </c>
+      <c r="B56" s="0" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A57" s="0" t="s">
-        <v>59</v>
-      </c>
-      <c r="B57" s="0" t="s">
-        <v>15</v>
+        <v>63</v>
+      </c>
+      <c r="B57" s="1" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A58" s="0" t="s">
-        <v>62</v>
+        <v>68</v>
       </c>
       <c r="B58" s="0" t="s">
-        <v>63</v>
+        <v>3</v>
       </c>
     </row>
     <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A59" s="0" t="s">
-        <v>62</v>
+        <v>68</v>
       </c>
       <c r="B59" s="0" t="s">
-        <v>64</v>
+        <v>6</v>
       </c>
     </row>
     <row r="60" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A60" s="0" t="s">
-        <v>62</v>
+        <v>68</v>
       </c>
       <c r="B60" s="0" t="s">
-        <v>65</v>
+        <v>4</v>
       </c>
     </row>
     <row r="61" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A61" s="0" t="s">
-        <v>62</v>
+        <v>68</v>
       </c>
       <c r="B61" s="0" t="s">
-        <v>3</v>
+        <v>69</v>
       </c>
     </row>
     <row r="62" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A62" s="0" t="s">
-        <v>62</v>
+        <v>68</v>
       </c>
       <c r="B62" s="0" t="s">
-        <v>6</v>
+        <v>70</v>
       </c>
     </row>
     <row r="63" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A63" s="0" t="s">
-        <v>62</v>
-      </c>
-      <c r="B63" s="0" t="s">
-        <v>4</v>
+        <v>68</v>
+      </c>
+      <c r="B63" s="1" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="64" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A64" s="0" t="s">
-        <v>62</v>
+        <v>68</v>
       </c>
       <c r="B64" s="0" t="s">
-        <v>66</v>
+        <v>15</v>
       </c>
     </row>
     <row r="65" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A65" s="0" t="s">
-        <v>62</v>
+        <v>71</v>
       </c>
       <c r="B65" s="0" t="s">
-        <v>67</v>
+        <v>72</v>
       </c>
     </row>
     <row r="66" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A66" s="0" t="s">
-        <v>62</v>
+        <v>71</v>
       </c>
       <c r="B66" s="0" t="s">
-        <v>68</v>
+        <v>73</v>
       </c>
     </row>
     <row r="67" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A67" s="0" t="s">
-        <v>62</v>
+        <v>71</v>
       </c>
       <c r="B67" s="0" t="s">
-        <v>60</v>
+        <v>74</v>
       </c>
     </row>
     <row r="68" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A68" s="0" t="s">
-        <v>62</v>
+        <v>71</v>
       </c>
       <c r="B68" s="0" t="s">
-        <v>69</v>
+        <v>3</v>
       </c>
     </row>
     <row r="69" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A69" s="0" t="s">
-        <v>62</v>
+        <v>71</v>
       </c>
       <c r="B69" s="0" t="s">
-        <v>70</v>
+        <v>6</v>
       </c>
     </row>
     <row r="70" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A70" s="0" t="s">
-        <v>62</v>
+        <v>71</v>
       </c>
       <c r="B70" s="0" t="s">
-        <v>71</v>
+        <v>4</v>
       </c>
     </row>
     <row r="71" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A71" s="0" t="s">
-        <v>62</v>
+        <v>71</v>
       </c>
       <c r="B71" s="0" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
     </row>
     <row r="72" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A72" s="0" t="s">
-        <v>62</v>
+        <v>71</v>
       </c>
       <c r="B72" s="0" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
     </row>
     <row r="73" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A73" s="0" t="s">
-        <v>62</v>
+        <v>71</v>
       </c>
       <c r="B73" s="0" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
     </row>
     <row r="74" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A74" s="0" t="s">
-        <v>62</v>
+        <v>71</v>
       </c>
       <c r="B74" s="0" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
     </row>
     <row r="75" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A75" s="0" t="s">
-        <v>62</v>
+        <v>71</v>
       </c>
       <c r="B75" s="0" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
     </row>
     <row r="76" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A76" s="0" t="s">
-        <v>62</v>
+        <v>71</v>
       </c>
       <c r="B76" s="0" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
     </row>
     <row r="77" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A77" s="0" t="s">
-        <v>62</v>
+        <v>71</v>
       </c>
       <c r="B77" s="0" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
     </row>
     <row r="78" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A78" s="0" t="s">
-        <v>62</v>
+        <v>71</v>
       </c>
       <c r="B78" s="0" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
     </row>
     <row r="79" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A79" s="0" t="s">
-        <v>62</v>
+        <v>71</v>
       </c>
       <c r="B79" s="0" t="s">
-        <v>69</v>
+        <v>82</v>
       </c>
     </row>
     <row r="80" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A80" s="0" t="s">
-        <v>80</v>
+        <v>71</v>
       </c>
       <c r="B80" s="0" t="s">
-        <v>81</v>
-      </c>
-      <c r="C80" s="0" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
     </row>
     <row r="81" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A81" s="0" t="s">
-        <v>80</v>
+        <v>71</v>
       </c>
       <c r="B81" s="0" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
     </row>
     <row r="82" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A82" s="0" t="s">
-        <v>84</v>
+        <v>71</v>
       </c>
       <c r="B82" s="0" t="s">
-        <v>28</v>
+        <v>85</v>
       </c>
     </row>
     <row r="83" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A83" s="0" t="s">
-        <v>84</v>
+        <v>71</v>
       </c>
       <c r="B83" s="0" t="s">
-        <v>29</v>
+        <v>86</v>
       </c>
     </row>
     <row r="84" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A84" s="0" t="s">
-        <v>84</v>
+        <v>71</v>
       </c>
       <c r="B84" s="0" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
     </row>
     <row r="85" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A85" s="0" t="s">
-        <v>84</v>
+        <v>71</v>
       </c>
       <c r="B85" s="0" t="s">
-        <v>31</v>
+        <v>88</v>
       </c>
     </row>
     <row r="86" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A86" s="0" t="s">
-        <v>84</v>
+        <v>71</v>
       </c>
       <c r="B86" s="0" t="s">
-        <v>32</v>
+        <v>78</v>
       </c>
     </row>
     <row r="87" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A87" s="0" t="s">
-        <v>84</v>
-      </c>
-      <c r="B87" s="0" t="s">
-        <v>33</v>
-      </c>
+      <c r="A87" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="B87" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="C87" s="1"/>
+      <c r="D87" s="1"/>
+      <c r="E87" s="1"/>
+      <c r="F87" s="1"/>
+      <c r="G87" s="1"/>
+      <c r="H87" s="1"/>
+      <c r="I87" s="1"/>
+      <c r="J87" s="1"/>
+      <c r="K87" s="1"/>
+      <c r="L87" s="1"/>
+      <c r="M87" s="1"/>
+      <c r="N87" s="1"/>
+      <c r="O87" s="1"/>
+      <c r="P87" s="1"/>
+      <c r="Q87" s="1"/>
+      <c r="R87" s="1"/>
+      <c r="S87" s="1"/>
+      <c r="T87" s="1"/>
+      <c r="U87" s="1"/>
+      <c r="V87" s="1"/>
+      <c r="W87" s="1"/>
+      <c r="X87" s="1"/>
+      <c r="Y87" s="1"/>
+      <c r="Z87" s="1"/>
     </row>
     <row r="88" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A88" s="0" t="s">
-        <v>86</v>
-      </c>
-      <c r="B88" s="0" t="s">
-        <v>87</v>
-      </c>
+      <c r="A88" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="B88" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="C88" s="1"/>
+      <c r="D88" s="1"/>
+      <c r="E88" s="1"/>
+      <c r="F88" s="1"/>
+      <c r="G88" s="1"/>
+      <c r="H88" s="1"/>
+      <c r="I88" s="1"/>
+      <c r="J88" s="1"/>
+      <c r="K88" s="1"/>
+      <c r="L88" s="1"/>
+      <c r="M88" s="1"/>
+      <c r="N88" s="1"/>
+      <c r="O88" s="1"/>
+      <c r="P88" s="1"/>
+      <c r="Q88" s="1"/>
+      <c r="R88" s="1"/>
+      <c r="S88" s="1"/>
+      <c r="T88" s="1"/>
+      <c r="U88" s="1"/>
+      <c r="V88" s="1"/>
+      <c r="W88" s="1"/>
+      <c r="X88" s="1"/>
+      <c r="Y88" s="1"/>
+      <c r="Z88" s="1"/>
     </row>
     <row r="89" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A89" s="0" t="s">
-        <v>88</v>
-      </c>
-      <c r="B89" s="0" t="s">
-        <v>55</v>
-      </c>
+      <c r="A89" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="B89" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="C89" s="1"/>
+      <c r="D89" s="1"/>
+      <c r="E89" s="1"/>
+      <c r="F89" s="1"/>
+      <c r="G89" s="1"/>
+      <c r="H89" s="1"/>
+      <c r="I89" s="1"/>
+      <c r="J89" s="1"/>
+      <c r="K89" s="1"/>
+      <c r="L89" s="1"/>
+      <c r="M89" s="1"/>
+      <c r="N89" s="1"/>
+      <c r="O89" s="1"/>
+      <c r="P89" s="1"/>
+      <c r="Q89" s="1"/>
+      <c r="R89" s="1"/>
+      <c r="S89" s="1"/>
+      <c r="T89" s="1"/>
+      <c r="U89" s="1"/>
+      <c r="V89" s="1"/>
+      <c r="W89" s="1"/>
+      <c r="X89" s="1"/>
+      <c r="Y89" s="1"/>
+      <c r="Z89" s="1"/>
     </row>
     <row r="90" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A90" s="0" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="B90" s="0" t="s">
-        <v>56</v>
+        <v>93</v>
       </c>
       <c r="C90" s="0" t="s">
-        <v>18</v>
-      </c>
-      <c r="D90" s="0" t="s">
-        <v>57</v>
+        <v>94</v>
       </c>
     </row>
     <row r="91" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A91" s="0" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="B91" s="0" t="s">
-        <v>58</v>
+        <v>95</v>
       </c>
     </row>
     <row r="92" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A92" s="0" t="s">
-        <v>88</v>
+        <v>96</v>
       </c>
       <c r="B92" s="0" t="s">
-        <v>15</v>
+        <v>29</v>
       </c>
     </row>
     <row r="93" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A93" s="0" t="s">
-        <v>88</v>
-      </c>
-      <c r="B93" s="3" t="s">
-        <v>16</v>
+        <v>96</v>
+      </c>
+      <c r="B93" s="0" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="94" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A94" s="0" t="s">
-        <v>89</v>
+        <v>96</v>
       </c>
       <c r="B94" s="0" t="s">
-        <v>55</v>
+        <v>97</v>
       </c>
     </row>
     <row r="95" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A95" s="0" t="s">
-        <v>89</v>
+        <v>96</v>
       </c>
       <c r="B95" s="0" t="s">
-        <v>56</v>
-      </c>
-      <c r="C95" s="0" t="s">
-        <v>18</v>
-      </c>
-      <c r="D95" s="0" t="s">
-        <v>57</v>
+        <v>32</v>
       </c>
     </row>
     <row r="96" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A96" s="0" t="s">
-        <v>89</v>
+        <v>96</v>
       </c>
       <c r="B96" s="0" t="s">
-        <v>58</v>
+        <v>33</v>
       </c>
     </row>
     <row r="97" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A97" s="0" t="s">
-        <v>89</v>
+        <v>96</v>
       </c>
       <c r="B97" s="0" t="s">
-        <v>15</v>
+        <v>34</v>
       </c>
     </row>
     <row r="98" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A98" s="0" t="s">
-        <v>89</v>
+        <v>98</v>
       </c>
       <c r="B98" s="0" t="s">
-        <v>16</v>
+        <v>99</v>
       </c>
     </row>
     <row r="99" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A99" s="0" t="s">
-        <v>90</v>
+        <v>100</v>
       </c>
       <c r="B99" s="0" t="s">
-        <v>91</v>
+        <v>64</v>
       </c>
     </row>
     <row r="100" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A100" s="0" t="s">
-        <v>90</v>
+        <v>100</v>
       </c>
       <c r="B100" s="0" t="s">
-        <v>92</v>
+        <v>65</v>
+      </c>
+      <c r="C100" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="D100" s="0" t="s">
+        <v>66</v>
       </c>
     </row>
     <row r="101" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A101" s="0" t="s">
-        <v>90</v>
+        <v>100</v>
       </c>
       <c r="B101" s="0" t="s">
-        <v>93</v>
+        <v>67</v>
       </c>
     </row>
     <row r="102" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A102" s="0" t="s">
-        <v>90</v>
+        <v>100</v>
       </c>
       <c r="B102" s="0" t="s">
-        <v>94</v>
-      </c>
-      <c r="C102" s="0" t="s">
-        <v>18</v>
-      </c>
-      <c r="D102" s="0" t="s">
-        <v>95</v>
+        <v>15</v>
       </c>
     </row>
     <row r="103" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A103" s="0" t="s">
-        <v>90</v>
-      </c>
-      <c r="B103" s="0" t="s">
-        <v>96</v>
-      </c>
-      <c r="C103" s="0" t="s">
-        <v>18</v>
-      </c>
-      <c r="D103" s="0" t="s">
-        <v>97</v>
+        <v>100</v>
+      </c>
+      <c r="B103" s="1" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="104" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A104" s="0" t="s">
-        <v>90</v>
+        <v>101</v>
       </c>
       <c r="B104" s="0" t="s">
-        <v>98</v>
+        <v>64</v>
+      </c>
+    </row>
+    <row r="105" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A105" s="0" t="s">
+        <v>101</v>
+      </c>
+      <c r="B105" s="0" t="s">
+        <v>65</v>
+      </c>
+      <c r="C105" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="D105" s="0" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="106" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A106" s="0" t="s">
+        <v>101</v>
+      </c>
+      <c r="B106" s="0" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="107" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A107" s="0" t="s">
+        <v>101</v>
+      </c>
+      <c r="B107" s="0" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="108" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A108" s="0" t="s">
+        <v>101</v>
+      </c>
+      <c r="B108" s="0" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="109" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A109" s="0" t="s">
+        <v>101</v>
+      </c>
+      <c r="B109" s="3" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="110" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A110" s="0" t="s">
+        <v>102</v>
+      </c>
+      <c r="B110" s="0" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="111" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A111" s="0" t="s">
+        <v>102</v>
+      </c>
+      <c r="B111" s="0" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="112" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A112" s="0" t="s">
+        <v>102</v>
+      </c>
+      <c r="B112" s="0" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="113" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A113" s="0" t="s">
+        <v>102</v>
+      </c>
+      <c r="B113" s="0" t="s">
+        <v>106</v>
+      </c>
+      <c r="C113" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="D113" s="0" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="114" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A114" s="0" t="s">
+        <v>102</v>
+      </c>
+      <c r="B114" s="0" t="s">
+        <v>108</v>
+      </c>
+      <c r="C114" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="D114" s="0" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="115" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A115" s="0" t="s">
+        <v>102</v>
+      </c>
+      <c r="B115" s="0" t="s">
+        <v>110</v>
       </c>
     </row>
   </sheetData>
